--- a/wine3.xlsx
+++ b/wine3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Илья\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alex1\Desktop\API\wine\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F64F38-63D8-492D-A065-4488BEC8CFAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791A58CF-939E-489F-9C64-C65462EF5D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -403,23 +403,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="F15" sqref="A13:F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" customWidth="1"/>
-    <col min="3" max="3" width="23.44140625" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" customWidth="1"/>
-    <col min="5" max="5" width="24.5546875" customWidth="1"/>
-    <col min="6" max="6" width="24.44140625" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="32.28515625" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -439,7 +439,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -459,23 +459,25 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="D3" s="4">
-        <v>350</v>
+        <v>399</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>13</v>
       </c>
@@ -493,25 +495,23 @@
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C5" s="4"/>
       <c r="D5" s="4">
-        <v>399</v>
+        <v>350</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>17</v>
       </c>
@@ -529,7 +529,7 @@
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -547,7 +547,7 @@
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
@@ -565,7 +565,7 @@
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
@@ -583,7 +583,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
@@ -598,6 +598,22 @@
         <v>29</v>
       </c>
       <c r="F10" s="3"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
